--- a/варианты 2025/шастин/3/18.xlsx
+++ b/варианты 2025/шастин/3/18.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Арсений\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="4815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="4815"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -35,7 +30,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -63,6 +58,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -168,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -183,12 +190,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -249,7 +258,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -301,7 +310,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -495,7 +504,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -505,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,53 +560,53 @@
       <c r="L1" s="3">
         <v>73</v>
       </c>
-      <c r="P1" s="16">
-        <f t="shared" ref="P1:P16" si="0">P2+A1</f>
+      <c r="P1" s="15">
+        <f t="shared" ref="P1:P15" si="0">P2+A1</f>
         <v>1076</v>
       </c>
       <c r="Q1" s="2">
-        <f>MIN(P1,Q2,P2)+B1</f>
-        <v>853</v>
+        <f>MAX(P1,Q2,P2)+B1</f>
+        <v>1202</v>
       </c>
       <c r="R1" s="2">
-        <f>MIN(Q1,R2,Q2)+C1</f>
-        <v>832</v>
+        <f>MAX(Q1,R2,Q2)+C1</f>
+        <v>1453</v>
       </c>
       <c r="S1" s="2">
-        <f>MIN(R1,S2,R2)+D1</f>
-        <v>775</v>
+        <f>MAX(R1,S2,R2)+D1</f>
+        <v>1519</v>
       </c>
       <c r="T1" s="2">
-        <f>MIN(S1,T2,S2)+E1</f>
-        <v>852</v>
+        <f>MAX(S1,T2,S2)+E1</f>
+        <v>1643</v>
       </c>
       <c r="U1" s="2">
-        <f>MIN(T1,U2,T2)+F1</f>
-        <v>842</v>
+        <f>MAX(T1,U2,T2)+F1</f>
+        <v>1692</v>
       </c>
       <c r="V1" s="2">
-        <f>MIN(U1,V2,U2)+G1</f>
-        <v>840</v>
+        <f>MAX(U1,V2,U2)+G1</f>
+        <v>1796</v>
       </c>
       <c r="W1" s="2">
-        <f>MIN(V1,W2,V2)+H1</f>
-        <v>854</v>
+        <f>MAX(V1,W2,V2)+H1</f>
+        <v>1890</v>
       </c>
       <c r="X1" s="2">
-        <f>MIN(W1,X2,W2)+I1</f>
-        <v>959</v>
+        <f>MAX(W1,X2,W2)+I1</f>
+        <v>1995</v>
       </c>
       <c r="Y1" s="2">
-        <f>MIN(X1,Y2,X2)+J1</f>
-        <v>910</v>
+        <f>MAX(X1,Y2,X2)+J1</f>
+        <v>2025</v>
       </c>
       <c r="Z1" s="2">
-        <f>MIN(Y1,Z2,Y2)+K1</f>
-        <v>936</v>
-      </c>
-      <c r="AA1" s="19">
-        <f>MIN(Z1,AA2,Z2)+L1</f>
-        <v>967</v>
+        <f>MAX(Y1,Z2,Y2)+K1</f>
+        <v>2079</v>
+      </c>
+      <c r="AA1" s="18">
+        <f>MAX(Z1,AA2,Z2)+L1</f>
+        <v>2152</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -637,53 +646,53 @@
       <c r="L2" s="6">
         <v>37</v>
       </c>
-      <c r="P2" s="15">
+      <c r="P2" s="14">
         <f t="shared" si="0"/>
         <v>1022</v>
       </c>
       <c r="Q2" s="5">
-        <f>MIN(P2,Q3,P3)+B2</f>
-        <v>823</v>
+        <f>MAX(P2,Q3,P3)+B2</f>
+        <v>1172</v>
       </c>
       <c r="R2" s="5">
-        <f>MIN(Q2,R3,Q3)+C2</f>
-        <v>759</v>
+        <f>MAX(Q2,R3,Q3)+C2</f>
+        <v>1380</v>
       </c>
       <c r="S2" s="5">
-        <f>MIN(R2,S3,R3)+D2</f>
-        <v>782</v>
+        <f>MAX(R2,S3,R3)+D2</f>
+        <v>1503</v>
       </c>
       <c r="T2" s="5">
-        <f>MIN(S2,T3,S3)+E2</f>
-        <v>823</v>
+        <f>MAX(S2,T3,S3)+E2</f>
+        <v>1566</v>
       </c>
       <c r="U2" s="5">
-        <f>MIN(T2,U3,T3)+F2</f>
-        <v>822</v>
+        <f>MAX(T2,U3,T3)+F2</f>
+        <v>1672</v>
       </c>
       <c r="V2" s="5">
-        <f>MIN(U2,V3,U3)+G2</f>
-        <v>793</v>
+        <f>MAX(U2,V3,U3)+G2</f>
+        <v>1749</v>
       </c>
       <c r="W2" s="5">
-        <f>MIN(V2,W3,V3)+H2</f>
-        <v>873</v>
+        <f>MAX(V2,W3,V3)+H2</f>
+        <v>1829</v>
       </c>
       <c r="X2" s="5">
-        <f>MIN(W2,X3,W3)+I2</f>
-        <v>880</v>
+        <f>MAX(W2,X3,W3)+I2</f>
+        <v>1881</v>
       </c>
       <c r="Y2" s="5">
-        <f>MIN(X2,Y3,X3)+J2</f>
-        <v>882</v>
+        <f>MAX(X2,Y3,X3)+J2</f>
+        <v>1910</v>
       </c>
       <c r="Z2" s="5">
-        <f>MIN(Y2,Z3,Y3)+K2</f>
-        <v>943</v>
+        <f>MAX(Y2,Z3,Y3)+K2</f>
+        <v>1971</v>
       </c>
       <c r="AA2" s="6">
-        <f>MIN(Z2,AA3,Z3)+L2</f>
-        <v>894</v>
+        <f>MAX(Z2,AA3,Z3)+L2</f>
+        <v>2008</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -723,53 +732,53 @@
       <c r="L3" s="6">
         <v>105</v>
       </c>
-      <c r="P3" s="15">
+      <c r="P3" s="14">
         <f t="shared" si="0"/>
         <v>946</v>
       </c>
       <c r="Q3" s="5">
-        <f>MIN(P3,Q4,P4)+B3</f>
-        <v>737</v>
+        <f>MAX(P3,Q4,P4)+B3</f>
+        <v>1086</v>
       </c>
       <c r="R3" s="5">
-        <f>MIN(Q3,R4,Q4)+C3</f>
-        <v>739</v>
+        <f>MAX(Q3,R4,Q4)+C3</f>
+        <v>1358</v>
       </c>
       <c r="S3" s="5">
-        <f>MIN(R3,S4,R4)+D3</f>
-        <v>811</v>
+        <f>MAX(R3,S4,R4)+D3</f>
+        <v>1460</v>
       </c>
       <c r="T3" s="5">
-        <f>MIN(S3,T4,S4)+E3</f>
-        <v>781</v>
+        <f>MAX(S3,T4,S4)+E3</f>
+        <v>1524</v>
       </c>
       <c r="U3" s="5">
-        <f>MIN(T3,U4,T4)+F3</f>
-        <v>716</v>
+        <f>MAX(T3,U4,T4)+F3</f>
+        <v>1546</v>
       </c>
       <c r="V3" s="5">
-        <f>MIN(U3,V4,U4)+G3</f>
-        <v>809</v>
+        <f>MAX(U3,V4,U4)+G3</f>
+        <v>1661</v>
       </c>
       <c r="W3" s="11">
         <f t="shared" ref="W3:X3" si="1">V3+H3</f>
-        <v>828</v>
+        <v>1680</v>
       </c>
       <c r="X3" s="11">
         <f t="shared" si="1"/>
-        <v>853</v>
+        <v>1705</v>
       </c>
       <c r="Y3" s="5">
-        <f>MIN(X3,Y4,X4)+J3</f>
-        <v>925</v>
+        <f>MAX(X3,Y4)+J3</f>
+        <v>1777</v>
       </c>
       <c r="Z3" s="5">
-        <f>MIN(Y3,Z4,Y4)+K3</f>
-        <v>894</v>
+        <f>MAX(Y3,Z4,Y4)+K3</f>
+        <v>1863</v>
       </c>
       <c r="AA3" s="6">
-        <f>MIN(Z3,AA4,Z4)+L3</f>
-        <v>857</v>
+        <f>MAX(Z3,AA4,Z4)+L3</f>
+        <v>1968</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -809,47 +818,47 @@
       <c r="L4" s="6">
         <v>25</v>
       </c>
-      <c r="P4" s="15">
+      <c r="P4" s="14">
         <f t="shared" si="0"/>
         <v>834</v>
       </c>
       <c r="Q4" s="5">
-        <f>MIN(P4,Q5,P5)+B4</f>
-        <v>703</v>
+        <f>MAX(P4,Q5,P5)+B4</f>
+        <v>1052</v>
       </c>
       <c r="R4" s="5">
-        <f>MIN(Q4,R5,Q5)+C4</f>
-        <v>765</v>
+        <f>MAX(Q4,R5,Q5)+C4</f>
+        <v>1322</v>
       </c>
       <c r="S4" s="5">
-        <f>MIN(R4,S5,R5)+D4</f>
-        <v>802</v>
+        <f>MAX(R4,S5,R5)+D4</f>
+        <v>1388</v>
       </c>
       <c r="T4" s="5">
-        <f>MIN(S4,T5,S5)+E4</f>
-        <v>718</v>
+        <f>MAX(S4,T5,S5)+E4</f>
+        <v>1461</v>
       </c>
       <c r="U4" s="6">
-        <f>MIN(T4,U5,T5)+F4</f>
-        <v>694</v>
-      </c>
-      <c r="V4" s="17"/>
+        <f>MAX(T4,U5,T5)+F4</f>
+        <v>1493</v>
+      </c>
+      <c r="V4" s="5"/>
       <c r="W4" s="5"/>
-      <c r="X4" s="18">
-        <f>MIN(W4,X5,W5)+I4</f>
-        <v>1000</v>
-      </c>
-      <c r="Y4" s="17">
+      <c r="X4" s="17">
+        <f>MAX(W4,X5,W5)+I4</f>
+        <v>1436</v>
+      </c>
+      <c r="Y4" s="16">
         <f t="shared" ref="Y4:Y13" si="2">Y5+J4</f>
-        <v>1024</v>
+        <v>1528</v>
       </c>
       <c r="Z4" s="5">
-        <f>MIN(Y4,Z5,Y5)+K4</f>
-        <v>808</v>
+        <f>MAX(Y4,Z5,Y5)+K4</f>
+        <v>1666</v>
       </c>
       <c r="AA4" s="6">
-        <f>MIN(Z4,AA5,Z5)+L4</f>
-        <v>752</v>
+        <f>MAX(Z4,AA5,Z5)+L4</f>
+        <v>1691</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -889,47 +898,47 @@
       <c r="L5" s="6">
         <v>16</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="14">
         <f t="shared" si="0"/>
         <v>767</v>
       </c>
       <c r="Q5" s="5">
-        <f>MIN(P5,Q6,P6)+B5</f>
-        <v>677</v>
+        <f>MAX(P5,Q6,P6)+B5</f>
+        <v>1026</v>
       </c>
       <c r="R5" s="5">
-        <f>MIN(Q5,R6,Q6)+C5</f>
-        <v>736</v>
-      </c>
-      <c r="S5" s="11">
-        <f>R5+D5</f>
-        <v>819</v>
+        <f>MAX(Q5,R6,Q6)+C5</f>
+        <v>1234</v>
+      </c>
+      <c r="S5" s="19">
+        <f>MAX(R5,R6)+D5</f>
+        <v>1317</v>
       </c>
       <c r="T5" s="5">
-        <f>MIN(S5,T6,S6)+E5</f>
-        <v>662</v>
+        <f>MAX(S5,T6,S6)+E5</f>
+        <v>1405</v>
       </c>
       <c r="U5" s="6">
-        <f>MIN(T5,U6,T6)+F5</f>
-        <v>711</v>
-      </c>
-      <c r="V5" s="17"/>
+        <f>MAX(T5,U6,T6)+F5</f>
+        <v>1454</v>
+      </c>
+      <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="6">
-        <f>MIN(W5,X6,W6)+I5</f>
-        <v>919</v>
-      </c>
-      <c r="Y5" s="17">
+        <f>MAX(W5,X6,W6)+I5</f>
+        <v>1355</v>
+      </c>
+      <c r="Y5" s="16">
         <f t="shared" si="2"/>
-        <v>961</v>
+        <v>1465</v>
       </c>
       <c r="Z5" s="5">
-        <f>MIN(Y5,Z6,Y6)+K5</f>
-        <v>773</v>
+        <f>MAX(Y5,Z6,Y6)+K5</f>
+        <v>1631</v>
       </c>
       <c r="AA5" s="6">
-        <f>MIN(Z5,AA6,Z6)+L5</f>
-        <v>727</v>
+        <f>MAX(Z5,AA6,Z6)+L5</f>
+        <v>1663</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -969,47 +978,47 @@
       <c r="L6" s="6">
         <v>65</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="14">
         <f t="shared" si="0"/>
         <v>696</v>
       </c>
       <c r="Q6" s="5">
-        <f>MIN(P6,Q7,P7)+B6</f>
-        <v>655</v>
+        <f>MAX(P6,Q7,P7)+B6</f>
+        <v>1004</v>
       </c>
       <c r="R6" s="5">
-        <f>MIN(Q6,R7,Q7)+C6</f>
-        <v>746</v>
-      </c>
-      <c r="S6" s="18">
-        <f>MIN(R6,S7,R7)+D6</f>
-        <v>574</v>
-      </c>
-      <c r="T6" s="17">
+        <f>MAX(Q6,R7,Q7)+C6</f>
+        <v>1153</v>
+      </c>
+      <c r="S6" s="17">
+        <f>MAX(R6,S7,R7)+D6</f>
+        <v>1182</v>
+      </c>
+      <c r="T6" s="16">
         <f t="shared" ref="T6:T12" si="3">T7+E6</f>
         <v>934</v>
       </c>
       <c r="U6" s="6">
-        <f>MIN(T6,U7,T7)+F6</f>
-        <v>808</v>
-      </c>
-      <c r="V6" s="17"/>
+        <f>MAX(T6,U7,T7)+F6</f>
+        <v>1099</v>
+      </c>
+      <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="6">
-        <f>MIN(W6,X7,W7)+I6</f>
-        <v>862</v>
-      </c>
-      <c r="Y6" s="17">
+        <f>MAX(W6,X7,W7)+I6</f>
+        <v>1298</v>
+      </c>
+      <c r="Y6" s="16">
         <f t="shared" si="2"/>
-        <v>873</v>
+        <v>1377</v>
       </c>
       <c r="Z6" s="5">
-        <f>MIN(Y6,Z7,Y7)+K6</f>
-        <v>724</v>
+        <f>MAX(Y6,Z7,Y7)+K6</f>
+        <v>1582</v>
       </c>
       <c r="AA6" s="6">
-        <f>MIN(Z6,AA7,Z7)+L6</f>
-        <v>711</v>
+        <f>MAX(Z6,AA7,Z7)+L6</f>
+        <v>1647</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -1049,47 +1058,47 @@
       <c r="L7" s="6">
         <v>38</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="14">
         <f t="shared" si="0"/>
         <v>627</v>
       </c>
       <c r="Q7" s="5">
-        <f>MIN(P7,Q8,P8)+B7</f>
-        <v>693</v>
+        <f>MAX(P7,Q8,P8)+B7</f>
+        <v>976</v>
       </c>
       <c r="R7" s="5">
-        <f>MIN(Q7,R8,Q8)+C7</f>
-        <v>640</v>
+        <f>MAX(Q7,R8,Q8)+C7</f>
+        <v>1047</v>
       </c>
       <c r="S7" s="6">
-        <f>MIN(R7,S8,R8)+D7</f>
-        <v>545</v>
-      </c>
-      <c r="T7" s="17">
+        <f>MAX(R7,S8,R8)+D7</f>
+        <v>1100</v>
+      </c>
+      <c r="T7" s="16">
         <f t="shared" si="3"/>
         <v>856</v>
       </c>
       <c r="U7" s="6">
-        <f>MIN(T7,U8,T8)+F7</f>
-        <v>696</v>
-      </c>
-      <c r="V7" s="17"/>
+        <f>MAX(T7,U8,T8)+F7</f>
+        <v>987</v>
+      </c>
+      <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="6">
-        <f>MIN(W7,X8,W8)+I7</f>
-        <v>779</v>
-      </c>
-      <c r="Y7" s="17">
+        <f>MAX(W7,X8,W8)+I7</f>
+        <v>1215</v>
+      </c>
+      <c r="Y7" s="16">
         <f t="shared" si="2"/>
-        <v>772</v>
+        <v>1276</v>
       </c>
       <c r="Z7" s="5">
-        <f>MIN(Y7,Z8,Y8)+K7</f>
-        <v>663</v>
+        <f>MAX(Y7,Z8,Y8)+K7</f>
+        <v>1521</v>
       </c>
       <c r="AA7" s="6">
-        <f>MIN(Z7,AA8,Z8)+L7</f>
-        <v>646</v>
+        <f>MAX(Z7,AA8,Z8)+L7</f>
+        <v>1559</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
@@ -1129,47 +1138,47 @@
       <c r="L8" s="6">
         <v>22</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P8" s="14">
         <f t="shared" si="0"/>
         <v>582</v>
       </c>
       <c r="Q8" s="5">
-        <f>MIN(P8,Q9,P9)+B8</f>
-        <v>621</v>
+        <f>MAX(P8,Q9,P9)+B8</f>
+        <v>865</v>
       </c>
       <c r="R8" s="5">
-        <f>MIN(Q8,R9,Q9)+C8</f>
-        <v>569</v>
+        <f>MAX(Q8,R9,Q9)+C8</f>
+        <v>916</v>
       </c>
       <c r="S8" s="6">
-        <f>MIN(R8,S9,R9)+D8</f>
-        <v>492</v>
-      </c>
-      <c r="T8" s="17">
+        <f>MAX(R8,S9,R9)+D8</f>
+        <v>949</v>
+      </c>
+      <c r="T8" s="16">
         <f t="shared" si="3"/>
         <v>813</v>
       </c>
       <c r="U8" s="6">
-        <f>MIN(T8,U9,T9)+F8</f>
-        <v>647</v>
-      </c>
-      <c r="V8" s="17"/>
+        <f>MAX(T8,U9,T9)+F8</f>
+        <v>938</v>
+      </c>
+      <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="6">
-        <f>MIN(W8,X9,W9)+I8</f>
-        <v>685</v>
-      </c>
-      <c r="Y8" s="17">
+        <f>MAX(W8,X9,W9)+I8</f>
+        <v>1121</v>
+      </c>
+      <c r="Y8" s="16">
         <f t="shared" si="2"/>
-        <v>700</v>
+        <v>1204</v>
       </c>
       <c r="Z8" s="5">
-        <f>MIN(Y8,Z9,Y9)+K8</f>
-        <v>622</v>
+        <f>MAX(Y8,Z9,Y9)+K8</f>
+        <v>1480</v>
       </c>
       <c r="AA8" s="6">
-        <f>MIN(Z8,AA9,Z9)+L8</f>
-        <v>608</v>
+        <f>MAX(Z8,AA9,Z9)+L8</f>
+        <v>1502</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
@@ -1209,47 +1218,47 @@
       <c r="L9" s="6">
         <v>20</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="14">
         <f t="shared" si="0"/>
         <v>512</v>
       </c>
       <c r="Q9" s="5">
-        <f>MIN(P9,Q10,P10)+B9</f>
-        <v>571</v>
+        <f>MAX(P9,Q10,P10)+B9</f>
+        <v>756</v>
       </c>
       <c r="R9" s="5">
-        <f>MIN(Q9,R10,Q10)+C9</f>
-        <v>518</v>
+        <f>MAX(Q9,R10,Q10)+C9</f>
+        <v>812</v>
       </c>
       <c r="S9" s="6">
-        <f>MIN(R9,S10,R10)+D9</f>
-        <v>459</v>
-      </c>
-      <c r="T9" s="17">
+        <f>MAX(R9,S10,R10)+D9</f>
+        <v>854</v>
+      </c>
+      <c r="T9" s="16">
         <f t="shared" si="3"/>
         <v>714</v>
       </c>
       <c r="U9" s="6">
-        <f>MIN(T9,U10,T10)+F9</f>
-        <v>586</v>
-      </c>
-      <c r="V9" s="17"/>
+        <f>MAX(T9,U10,T10)+F9</f>
+        <v>877</v>
+      </c>
+      <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="6">
-        <f>MIN(W9,X10,W10)+I9</f>
-        <v>578</v>
-      </c>
-      <c r="Y9" s="17">
+        <f>MAX(W9,X10,W10)+I9</f>
+        <v>1014</v>
+      </c>
+      <c r="Y9" s="16">
         <f t="shared" si="2"/>
-        <v>593</v>
+        <v>1097</v>
       </c>
       <c r="Z9" s="5">
-        <f>MIN(Y9,Z10,Y10)+K9</f>
-        <v>586</v>
+        <f>MAX(Y9,Z10,Y10)+K9</f>
+        <v>1444</v>
       </c>
       <c r="AA9" s="6">
-        <f>MIN(Z9,AA10,Z10)+L9</f>
-        <v>606</v>
+        <f>MAX(Z9,AA10,Z10)+L9</f>
+        <v>1465</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
@@ -1289,47 +1298,47 @@
       <c r="L10" s="6">
         <v>88</v>
       </c>
-      <c r="P10" s="15">
+      <c r="P10" s="14">
         <f t="shared" si="0"/>
         <v>475</v>
       </c>
       <c r="Q10" s="5">
-        <f>MIN(P10,Q11,P11)+B10</f>
-        <v>472</v>
+        <f>MAX(P10,Q11,P11)+B10</f>
+        <v>657</v>
       </c>
       <c r="R10" s="5">
-        <f>MIN(Q10,R11,Q11)+C10</f>
-        <v>462</v>
+        <f>MAX(Q10,R11,Q11)+C10</f>
+        <v>755</v>
       </c>
       <c r="S10" s="6">
-        <f>MIN(R10,S11,R11)+D10</f>
-        <v>417</v>
-      </c>
-      <c r="T10" s="17">
+        <f>MAX(R10,S11,R11)+D10</f>
+        <v>808</v>
+      </c>
+      <c r="T10" s="16">
         <f t="shared" si="3"/>
         <v>641</v>
       </c>
       <c r="U10" s="6">
-        <f>MIN(T10,U11,T11)+F10</f>
-        <v>551</v>
-      </c>
-      <c r="V10" s="17"/>
+        <f>MAX(T10,U11,T11)+F10</f>
+        <v>842</v>
+      </c>
+      <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="6">
-        <f>MIN(W10,X11,W11)+I10</f>
-        <v>540</v>
-      </c>
-      <c r="Y10" s="17">
+        <f>MAX(W10,X11,W11)+I10</f>
+        <v>976</v>
+      </c>
+      <c r="Y10" s="16">
         <f t="shared" si="2"/>
-        <v>499</v>
+        <v>1003</v>
       </c>
       <c r="Z10" s="5">
-        <f>MIN(Y10,Z11,Y11)+K10</f>
-        <v>590</v>
+        <f>MAX(Y10,Z11,Y11)+K10</f>
+        <v>1357</v>
       </c>
       <c r="AA10" s="6">
-        <f>MIN(Z10,AA11,Z11)+L10</f>
-        <v>604</v>
+        <f>MAX(Z10,AA11,Z11)+L10</f>
+        <v>1445</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
@@ -1369,47 +1378,47 @@
       <c r="L11" s="6">
         <v>50</v>
       </c>
-      <c r="P11" s="15">
+      <c r="P11" s="14">
         <f t="shared" si="0"/>
         <v>384</v>
       </c>
       <c r="Q11" s="5">
-        <f>MIN(P11,Q12,P12)+B11</f>
-        <v>464</v>
+        <f>MAX(P11,Q12,P12)+B11</f>
+        <v>569</v>
       </c>
       <c r="R11" s="5">
-        <f>MIN(Q11,R12,Q12)+C11</f>
-        <v>364</v>
+        <f>MAX(Q11,R12,Q12)+C11</f>
+        <v>603</v>
       </c>
       <c r="S11" s="6">
-        <f>MIN(R11,S12,R12)+D11</f>
-        <v>375</v>
-      </c>
-      <c r="T11" s="17">
+        <f>MAX(R11,S12,R12)+D11</f>
+        <v>648</v>
+      </c>
+      <c r="T11" s="16">
         <f t="shared" si="3"/>
         <v>576</v>
       </c>
       <c r="U11" s="6">
-        <f>MIN(T11,U12,T12)+F11</f>
-        <v>507</v>
-      </c>
-      <c r="V11" s="17"/>
+        <f>MAX(T11,U12,T12)+F11</f>
+        <v>798</v>
+      </c>
+      <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="6">
-        <f>MIN(W11,X12,W12)+I11</f>
-        <v>455</v>
-      </c>
-      <c r="Y11" s="17">
+        <f>MAX(W11,X12,W12)+I11</f>
+        <v>891</v>
+      </c>
+      <c r="Y11" s="16">
         <f t="shared" si="2"/>
-        <v>478</v>
+        <v>982</v>
       </c>
       <c r="Z11" s="5">
-        <f>MIN(Y11,Z12,Y12)+K11</f>
-        <v>516</v>
+        <f>MAX(Y11,Z12,Y12)+K11</f>
+        <v>1245</v>
       </c>
       <c r="AA11" s="6">
-        <f>MIN(Z11,AA12,Z12)+L11</f>
-        <v>518</v>
+        <f>MAX(Z11,AA12,Z12)+L11</f>
+        <v>1319</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
@@ -1449,47 +1458,47 @@
       <c r="L12" s="6">
         <v>90</v>
       </c>
-      <c r="P12" s="15">
+      <c r="P12" s="14">
         <f t="shared" si="0"/>
         <v>349</v>
       </c>
       <c r="Q12" s="5">
-        <f>MIN(P12,Q13,P13)+B12</f>
-        <v>366</v>
+        <f>MAX(P12,Q13,P13)+B12</f>
+        <v>454</v>
       </c>
       <c r="R12" s="5">
-        <f>MIN(Q12,R13,Q13)+C12</f>
-        <v>330</v>
+        <f>MAX(Q12,R13,Q13)+C12</f>
+        <v>479</v>
       </c>
       <c r="S12" s="6">
-        <f>MIN(R12,S13,R13)+D12</f>
-        <v>372</v>
-      </c>
-      <c r="T12" s="17">
+        <f>MAX(R12,S13,R13)+D12</f>
+        <v>521</v>
+      </c>
+      <c r="T12" s="16">
         <f t="shared" si="3"/>
         <v>542</v>
       </c>
       <c r="U12" s="6">
-        <f>MIN(T12,U13,T13)+F12</f>
-        <v>434</v>
-      </c>
-      <c r="V12" s="17"/>
+        <f>MAX(T12,U13,T13)+F12</f>
+        <v>725</v>
+      </c>
+      <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="6">
-        <f>MIN(W12,X13,W13)+I12</f>
-        <v>411</v>
-      </c>
-      <c r="Y12" s="17">
+        <f>MAX(W12,X13,W13)+I12</f>
+        <v>847</v>
+      </c>
+      <c r="Y12" s="16">
         <f t="shared" si="2"/>
-        <v>450</v>
+        <v>954</v>
       </c>
       <c r="Z12" s="5">
-        <f>MIN(Y12,Z13,Y13)+K12</f>
-        <v>468</v>
+        <f>MAX(Y12,Z13,Y13)+K12</f>
+        <v>1179</v>
       </c>
       <c r="AA12" s="6">
-        <f>MIN(Z12,AA13,Z13)+L12</f>
-        <v>558</v>
+        <f>MAX(Z12,AA13,Z13)+L12</f>
+        <v>1269</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1529,16 +1538,16 @@
       <c r="L13" s="6">
         <v>22</v>
       </c>
-      <c r="P13" s="15">
+      <c r="P13" s="14">
         <f t="shared" si="0"/>
         <v>261</v>
       </c>
-      <c r="Q13" s="13">
-        <f t="shared" ref="Q13:T13" si="4">P13+B13</f>
+      <c r="Q13" s="20">
+        <f>MAX(P13,P14)+B13</f>
         <v>305</v>
       </c>
       <c r="R13" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="Q13:T13" si="4">Q13+C13</f>
         <v>379</v>
       </c>
       <c r="S13" s="13">
@@ -1550,26 +1559,26 @@
         <v>471</v>
       </c>
       <c r="U13" s="6">
-        <f>MIN(T13,U14,T14)+F13</f>
-        <v>366</v>
-      </c>
-      <c r="V13" s="14"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="6">
-        <f>MIN(W13,X14,W14)+I13</f>
-        <v>388</v>
-      </c>
-      <c r="Y13" s="17">
-        <f t="shared" si="2"/>
-        <v>422</v>
+        <f>MAX(T13,U14,T14)+F13</f>
+        <v>657</v>
+      </c>
+      <c r="V13" s="9"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="21">
+        <f>MAX(X14,W14)+I13</f>
+        <v>824</v>
+      </c>
+      <c r="Y13" s="16">
+        <f>MAX(Y14,X14)+J13</f>
+        <v>926</v>
       </c>
       <c r="Z13" s="5">
-        <f>MIN(Y13,Z14,Y14)+K13</f>
-        <v>513</v>
+        <f>MAX(Y13,Z14,Y14)+K13</f>
+        <v>1133</v>
       </c>
       <c r="AA13" s="6">
-        <f>MIN(Z13,AA14,Z14)+L13</f>
-        <v>535</v>
+        <f>MAX(Z13,AA14,Z14)+L13</f>
+        <v>1155</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
@@ -1609,53 +1618,53 @@
       <c r="L14" s="6">
         <v>51</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P14" s="14">
         <f t="shared" si="0"/>
         <v>157</v>
       </c>
       <c r="Q14" s="5">
-        <f>MIN(P14,Q15,P15)+B14</f>
-        <v>184</v>
+        <f>MAX(P14,Q15,P15)+B14</f>
+        <v>273</v>
       </c>
       <c r="R14" s="5">
-        <f>MIN(Q14,R15,Q15)+C14</f>
-        <v>163</v>
+        <f>MAX(Q14,R15,Q15)+C14</f>
+        <v>389</v>
       </c>
       <c r="S14" s="5">
-        <f>MIN(R14,S15,R15)+D14</f>
-        <v>230</v>
+        <f>MAX(R14,S15,R15)+D14</f>
+        <v>481</v>
       </c>
       <c r="T14" s="5">
-        <f>MIN(S14,T15,S15)+E14</f>
-        <v>287</v>
+        <f>MAX(S14,T15,S15)+E14</f>
+        <v>538</v>
       </c>
       <c r="U14" s="5">
-        <f>MIN(T14,U15,T15)+F14</f>
-        <v>292</v>
+        <f>MAX(T14,U15,T15)+F14</f>
+        <v>578</v>
       </c>
       <c r="V14" s="5">
-        <f>MIN(U14,V15,U15)+G14</f>
-        <v>295</v>
+        <f>MAX(U14,V15,U15)+G14</f>
+        <v>606</v>
       </c>
       <c r="W14" s="5">
-        <f>MIN(V14,W15,V15)+H14</f>
-        <v>320</v>
+        <f>MAX(V14,W15,V15)+H14</f>
+        <v>706</v>
       </c>
       <c r="X14" s="5">
-        <f>MIN(W14,X15,W15)+I14</f>
-        <v>359</v>
+        <f>MAX(W14,X15,W15)+I14</f>
+        <v>756</v>
       </c>
       <c r="Y14" s="5">
-        <f>MIN(X14,Y15,X15)+J14</f>
-        <v>406</v>
+        <f>MAX(X14,Y15,X15)+J14</f>
+        <v>910</v>
       </c>
       <c r="Z14" s="5">
-        <f>MIN(Y14,Z15,Y15)+K14</f>
-        <v>514</v>
+        <f>MAX(Y14,Z15,Y15)+K14</f>
+        <v>1026</v>
       </c>
       <c r="AA14" s="6">
-        <f>MIN(Z14,AA15,Z15)+L14</f>
-        <v>565</v>
+        <f>MAX(Z14,AA15,Z15)+L14</f>
+        <v>1077</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
@@ -1695,53 +1704,53 @@
       <c r="L15" s="6">
         <v>70</v>
       </c>
-      <c r="P15" s="15">
+      <c r="P15" s="14">
         <f t="shared" si="0"/>
         <v>136</v>
       </c>
       <c r="Q15" s="5">
-        <f>MIN(P15,Q16,P16)+B15</f>
-        <v>125</v>
+        <f>MAX(P15,Q16,P16)+B15</f>
+        <v>214</v>
       </c>
       <c r="R15" s="5">
-        <f>MIN(Q15,R16,Q16)+C15</f>
-        <v>185</v>
+        <f>MAX(Q15,R16,Q16)+C15</f>
+        <v>351</v>
       </c>
       <c r="S15" s="5">
-        <f>MIN(R15,S16,R16)+D15</f>
-        <v>248</v>
+        <f>MAX(R15,S16,R16)+D15</f>
+        <v>414</v>
       </c>
       <c r="T15" s="5">
-        <f>MIN(S15,T16,S16)+E15</f>
-        <v>252</v>
+        <f>MAX(S15,T16,S16)+E15</f>
+        <v>456</v>
       </c>
       <c r="U15" s="5">
-        <f>MIN(T15,U16,T16)+F15</f>
-        <v>267</v>
+        <f>MAX(T15,U16,T16)+F15</f>
+        <v>505</v>
       </c>
       <c r="V15" s="5">
-        <f>MIN(U15,V16,U16)+G15</f>
-        <v>286</v>
+        <f>MAX(U15,V16,U16)+G15</f>
+        <v>524</v>
       </c>
       <c r="W15" s="5">
-        <f>MIN(V15,W16,V16)+H15</f>
-        <v>386</v>
+        <f>MAX(V15,W16,V16)+H15</f>
+        <v>672</v>
       </c>
       <c r="X15" s="5">
-        <f>MIN(W15,X16,W16)+I15</f>
-        <v>418</v>
+        <f>MAX(W15,X16,W16)+I15</f>
+        <v>717</v>
       </c>
       <c r="Y15" s="5">
-        <f>MIN(X15,Y16,X16)+J15</f>
-        <v>528</v>
+        <f>MAX(X15,Y16,X16)+J15</f>
+        <v>863</v>
       </c>
       <c r="Z15" s="5">
-        <f>MIN(Y15,Z16,Y16)+K15</f>
-        <v>583</v>
+        <f>MAX(Y15,Z16,Y16)+K15</f>
+        <v>918</v>
       </c>
       <c r="AA15" s="6">
-        <f>MIN(Z15,AA16,Z16)+L15</f>
-        <v>653</v>
+        <f>MAX(Z15,AA16,Z16)+L15</f>
+        <v>988</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
@@ -1781,53 +1790,53 @@
       <c r="L16" s="6">
         <v>45</v>
       </c>
-      <c r="P16" s="15">
+      <c r="P16" s="14">
         <f>P17+A16</f>
         <v>96</v>
       </c>
       <c r="Q16" s="5">
-        <f>MIN(P16,Q17,P17)+B16</f>
-        <v>118</v>
+        <f>MAX(P16,Q17,P17)+B16</f>
+        <v>185</v>
       </c>
       <c r="R16" s="5">
-        <f>MIN(Q16,R17,Q17)+C16</f>
-        <v>217</v>
+        <f>MAX(Q16,R17,Q17)+C16</f>
+        <v>284</v>
       </c>
       <c r="S16" s="5">
-        <f>MIN(R16,S17,R17)+D16</f>
-        <v>210</v>
+        <f>MAX(R16,S17,R17)+D16</f>
+        <v>329</v>
       </c>
       <c r="T16" s="5">
-        <f>MIN(S16,T17,S17)+E16</f>
-        <v>218</v>
+        <f>MAX(S16,T17,S17)+E16</f>
+        <v>354</v>
       </c>
       <c r="U16" s="5">
-        <f>MIN(T16,U17,T17)+F16</f>
-        <v>293</v>
+        <f>MAX(T16,U17,T17)+F16</f>
+        <v>429</v>
       </c>
       <c r="V16" s="5">
-        <f>MIN(U16,V17,U17)+G16</f>
-        <v>335</v>
+        <f>MAX(U16,V17,U17)+G16</f>
+        <v>471</v>
       </c>
       <c r="W16" s="5">
-        <f>MIN(V16,W17,V17)+H16</f>
-        <v>425</v>
+        <f>MAX(V16,W17,V17)+H16</f>
+        <v>572</v>
       </c>
       <c r="X16" s="5">
-        <f>MIN(W16,X17,W17)+I16</f>
-        <v>538</v>
+        <f>MAX(W16,X17,W17)+I16</f>
+        <v>685</v>
       </c>
       <c r="Y16" s="5">
-        <f>MIN(X16,Y17,X17)+J16</f>
-        <v>606</v>
+        <f>MAX(X16,Y17,X17)+J16</f>
+        <v>753</v>
       </c>
       <c r="Z16" s="5">
-        <f>MIN(Y16,Z17,Y17)+K16</f>
-        <v>657</v>
+        <f>MAX(Y16,Z17,Y17)+K16</f>
+        <v>804</v>
       </c>
       <c r="AA16" s="6">
-        <f>MIN(Z16,AA17,Z17)+L16</f>
-        <v>702</v>
+        <f>MAX(Z16,AA17,Z17)+L16</f>
+        <v>849</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1918,12 +1927,12 @@
     </row>
     <row r="18" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="X19" s="19"/>
+      <c r="X19" s="18"/>
       <c r="Z19">
         <v>2152</v>
       </c>
       <c r="AA19">
-        <v>574</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
